--- a/planif-taches-heures.xlsx
+++ b/planif-taches-heures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_data\dec\H20\gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B287E5-3393-4262-AEF0-853C5171BE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A4C35C-C427-41ED-B908-589A24016AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2115" windowWidth="7500" windowHeight="6000" xr2:uid="{900754A3-0841-467F-9901-BB350ECD1BDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{900754A3-0841-467F-9901-BB350ECD1BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Formation frontend (html,semantic ui, javascript)</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Formation backend (nodejs, BD, PHP,etc.)</t>
   </si>
   <si>
-    <t>Séparation des tâches</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tâches </t>
   </si>
   <si>
@@ -111,6 +108,96 @@
   </si>
   <si>
     <t>Planification et montage pour le symposium</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Taches</t>
+  </si>
+  <si>
+    <t>DEPENDANCE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>O,M</t>
+  </si>
+  <si>
+    <t>R,S</t>
+  </si>
+  <si>
+    <t>H,O,M,R,S</t>
+  </si>
+  <si>
+    <t>H,O,M,R,S,U</t>
   </si>
 </sst>
 </file>
@@ -158,10 +245,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,224 +569,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD590889-3E86-434C-9456-3996DCB44F1D}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>5</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>SUM(B2:B25)</f>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>SUM(B2:B24)</f>
         <v>270</v>
       </c>
-      <c r="F27">
-        <f>SUM(270-B27)</f>
+      <c r="F26">
+        <f>SUM(270-B26)</f>
         <v>0</v>
       </c>
     </row>

--- a/planif-taches-heures.xlsx
+++ b/planif-taches-heures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_data\dec\H20\gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A4C35C-C427-41ED-B908-589A24016AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8A94C-1700-4A37-B68E-579A369765D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{900754A3-0841-467F-9901-BB350ECD1BDE}"/>
+    <workbookView xWindow="24870" yWindow="2955" windowWidth="7500" windowHeight="6000" xr2:uid="{900754A3-0841-467F-9901-BB350ECD1BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -245,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -253,6 +259,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +581,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,9 +609,9 @@
         <v>22</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -625,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>33</v>
@@ -667,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>34</v>
@@ -695,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -723,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>43</v>
@@ -737,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -751,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
@@ -779,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -793,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -821,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>46</v>
